--- a/homework/Teddy_week10_homework/Teddy_week10_homework_table.xlsx
+++ b/homework/Teddy_week10_homework/Teddy_week10_homework_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tedggarcia/Desktop/BIOL7800_Spring2019/compPhyloCourse/teddy/week10_PhylogeneticGraphicalModels/homework/Teddy_week10_homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3758E6FF-3A4A-4144-83B6-0055F1CF2D77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C29ECAF-FD61-5142-B939-05B6E7B1A1E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" activeTab="1" xr2:uid="{6D5B2EBD-BC5C-554D-9FA5-BC6ABC594454}"/>
   </bookViews>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,19 +1185,35 @@
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="2">
+        <v>0.43737510000000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.50732840000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="2">
+        <v>0.99900069999999996</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
